--- a/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T14:32:57+00:00</t>
+    <t>2024-04-30T14:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T14:33:35+00:00</t>
+    <t>2024-05-02T07:44:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T07:44:53+00:00</t>
+    <t>2024-05-03T07:57:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -794,7 +794,7 @@
  TRE_A04-TypeDocument-LOINC, OID : 2.16.840.1.113883.6.1
  TRE_A12-NomenclatureASTM, OID : ASTM
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J66-TypeCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {f:type}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {null}</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -843,7 +843,7 @@
 -	TRE_A03-ClasseDocument-CISIS, OID : 1.2.250.1.213.1.1.4.1
 -	TRE_A10-NomenclatureURN, OID : URN
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J57-ClassCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J06-XdsClassCode-CISIS peut être utilisé. {f:category}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J06-XdsClassCode-CISIS peut être utilisé. {null}</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -861,7 +861,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
 </t>
   </si>
   <si>
@@ -923,7 +923,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient|http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|Device|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
 </t>
   </si>
   <si>
@@ -1151,7 +1151,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-securityLabel:Les codes pour cet élément doivent provenir du ValueSet spécifié par le standard. Lorsqu’aucun code ne correspond au concept recherché, un code provenant de la terminologie de référence TRE_A07-StatusVisibiliteDocument, OID : 1.2.250.1.213.1.1.4.13 peut être utilisé. {f:securityLabel}</t>
+constr-bind-securityLabel:Les codes pour cet élément doivent provenir du ValueSet spécifié par le standard. Lorsqu’aucun code ne correspond au concept recherché, un code provenant de la terminologie de référence TRE_A07-StatusVisibiliteDocument, OID : 1.2.250.1.213.1.1.4.13 peut être utilisé. {null}</t>
   </si>
   <si>
     <t>Composition.confidentiality, Composition.meta.security</t>
@@ -1444,7 +1444,7 @@
 - TRE_A09-DICOMuidRegistry, OID : 1.2.840.10008.2.6.1
 - TRE_A10-NomenclatureURN, OID : URN
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J60-FormatCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J10-XdsFormatCode-CISIS peut être utilisé. {f:content/f:format}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J10-XdsFormatCode-CISIS peut être utilisé. {null}</t>
   </si>
   <si>
     <t>Composition.meta.profile</t>
@@ -1524,7 +1524,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-context-event:Nomenclatures utilisées : 1) CCAM pour les actes médicaux (OID="1.2.250.1.213.2.5"); 2) CIM-10 pour les diagnostics de pathologie (OID="2.16.840.1.113883.6.3"), 3) TRE_A00-ProducteurDocNonPS pour les documents d'expression personnelle du patient, 4) autre {f:context/f:event}</t>
+constr-bind-context-event:Nomenclatures utilisées : 1) CCAM pour les actes médicaux (OID="1.2.250.1.213.2.5"); 2) CIM-10 pour les diagnostics de pathologie (OID="2.16.840.1.113883.6.3"), 3) TRE_A00-ProducteurDocNonPS pour les documents d'expression personnelle du patient, 4) autre {null}</t>
   </si>
   <si>
     <t>Composition.event.code</t>
@@ -1581,7 +1581,7 @@
 constr-bind-ProducteurDoc-simplified:L’utilisation de cette nomenclature est recommandée mais non obligatoire (prefered) :
 -	TRE_R02-SecteurActivite, OID : 1.2.250.1.71.4.2.4 (lorsque l’auteur du document est un professionnel ou un équipement sous sa responsabilité)
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J61-HealthcareFacilityTypeCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé. {f:context/f:practiceSetting or f:context/f:facilityType}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé. {null}</t>
   </si>
   <si>
     <t>usually from a mapping to a local ValueSet</t>

--- a/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>PDSm Simplified Publish</t>
+    <t>PDSm Simplified Publish Document Reference</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T07:57:36+00:00</t>
+    <t>2024-05-28T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Ce profil est utilisé dans le cadre du flux 9 d'ajout simplifié de document. Le flux et le profil sont inspirés d’IHE MHD, transaction ITI-105.
+    <t>Profil utilisé dans le cadre du flux 9 d'ajout simplifié de document. Le flux et le profil sont inspirés d’IHE MHD, transaction ITI-105.
 Contrairement au profil PDSm_ComprehensiveDocumentReference, le document est directement inclus dans DocumentReference.attachment.data et non dans une ressource « Binary » externe.
 La publication simplifiée est une simple requête HTTP POST d'une ressource DocumentReference conforme à ce profil.</t>
   </si>

--- a/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:41:18+00:00</t>
+    <t>2024-05-28T14:01:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:01:49+00:00</t>
+    <t>2024-05-29T09:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T09:54:05+00:00</t>
+    <t>2024-05-29T09:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:03:18+00:00</t>
+    <t>2024-06-03T14:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:20:42+00:00</t>
+    <t>2024-10-31T16:32:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,7 +450,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -470,7 +470,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -797,7 +797,7 @@
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 constr-bind-type:Les valeurs possibles pour cet élément doivent provenir d’une des terminologies de référence suivantes :
  TRE_A05-TypeDocComplementaireCISIS, OID : 1.2.250.1.213.1.1.4.12
- TRE_A04-TypeDocument-LOINC, OID : 2.16.840.1.113883.6.1
+ LOINC, OID : 2.16.840.1.113883.6.1
  TRE_A12-NomenclatureASTM, OID : ASTM
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J66-TypeCode-DMP).
 En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {null}</t>

--- a/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/main/ig/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T16:32:22+00:00</t>
+    <t>2024-10-31T16:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -797,7 +797,7 @@
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 constr-bind-type:Les valeurs possibles pour cet élément doivent provenir d’une des terminologies de référence suivantes :
  TRE_A05-TypeDocComplementaireCISIS, OID : 1.2.250.1.213.1.1.4.12
- LOINC, OID : 2.16.840.1.113883.6.1
+ TRE_A04-TypeDocument-LOINC, OID : 2.16.840.1.113883.6.1
  TRE_A12-NomenclatureASTM, OID : ASTM
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J66-TypeCode-DMP).
 En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {null}</t>
